--- a/Code/Prep codes/test_dir/result2.xlsx
+++ b/Code/Prep codes/test_dir/result2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:A700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7008 +439,4898 @@
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Affected</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20211228</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+          <t>20211213</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20211229</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+          <t>20211214</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20211230</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+          <t>20211215</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20220601</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+          <t>20211216</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20220602</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
+          <t>20211217</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20220603</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+          <t>20211218</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20220604</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
+          <t>20211219</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20220605</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
+          <t>20211220</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20220606</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+          <t>20211221</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20220607</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+          <t>20211222</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20220608</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
+          <t>20211223</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20220609</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
+          <t>20211224</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20220610</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
+          <t>20211225</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20220611</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
+          <t>20211226</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20220612</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
+          <t>20211227</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20220613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+          <t>20211228</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20220616</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
+          <t>20211229</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20220617</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
+          <t>20211230</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20220619</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
+          <t>20220601</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20220620</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
+          <t>20220602</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20220621</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
+          <t>20220603</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20220622</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
+          <t>20220604</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20220623</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
+          <t>20220605</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20220624</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
+          <t>20220606</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20220625</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
+          <t>20220607</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20220627</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
+          <t>20220608</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20220628</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
+          <t>20220609</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20220629</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
+          <t>20220610</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20220630</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
+          <t>20220611</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20220701</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
+          <t>20220612</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20220702</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
+          <t>20220613</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20220703</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
+          <t>20220616</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20220704</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
+          <t>20220617</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20220706</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
+          <t>20220619</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20220707</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
+          <t>20220620</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20220709</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
+          <t>20220621</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20220710</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
+          <t>20220622</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20220711</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
+          <t>20220623</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20220712</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
+          <t>20220624</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20220713</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
+          <t>20220625</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20220714</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
+          <t>20220627</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20220715</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
+          <t>20220628</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20220716</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4</v>
+          <t>20220629</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20220717</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
+          <t>20220630</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20220718</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
+          <t>20220701</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20220719</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
+          <t>20220702</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20220720</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
+          <t>20220703</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20220721</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
+          <t>20220704</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20220722</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
+          <t>20220706</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20220723</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
+          <t>20220707</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20220724</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
+          <t>20220709</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20220726</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
+          <t>20220710</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20220728</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
+          <t>20220711</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20220729</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
+          <t>20220712</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20220730</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3</v>
+          <t>20220713</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20220731</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
+          <t>20220714</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20220801</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2</v>
+          <t>20220715</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20220802</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
+          <t>20220716</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20220803</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
+          <t>20220717</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20220804</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2</v>
+          <t>20220718</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20220805</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3</v>
+          <t>20220719</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20220806</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>20220720</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20220807</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
+          <t>20220721</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20220810</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2</v>
+          <t>20220722</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20220811</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
+          <t>20220723</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20220812</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
+          <t>20220724</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20220813</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
+          <t>20220726</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20220814</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2</v>
+          <t>20220728</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20220815</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3</v>
+          <t>20220729</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20220816</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
+          <t>20220730</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20220817</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3</v>
+          <t>20220731</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20220818</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2</v>
+          <t>20220801</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20220819</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
+          <t>20220802</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20220820</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>2</v>
+          <t>20220803</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20220821</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2</v>
+          <t>20220804</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20220822</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>3</v>
+          <t>20220805</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20220823</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>3</v>
+          <t>20220806</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20220825</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
+          <t>20220807</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20220826</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
+          <t>20220810</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20220827</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>3</v>
+          <t>20220811</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20220828</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>4</v>
+          <t>20220812</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20220829</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>4</v>
+          <t>20220813</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20220830</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>4</v>
+          <t>20220814</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20220831</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>2</v>
+          <t>20220815</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20220901</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
+          <t>20220816</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20220902</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
+          <t>20220817</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20220904</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>3</v>
+          <t>20220818</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20220905</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>2</v>
+          <t>20220819</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20220906</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>3</v>
+          <t>20220820</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20220908</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
+          <t>20220821</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20220909</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
+          <t>20220822</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20220910</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>5</v>
+          <t>20220823</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20220911</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
+          <t>20220825</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20220912</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>4</v>
+          <t>20220826</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20220913</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>3</v>
+          <t>20220827</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20220914</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>5</v>
+          <t>20220828</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20220916</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>4</v>
+          <t>20220829</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20220917</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>3</v>
+          <t>20220830</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20220919</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>6</v>
+          <t>20220831</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20220920</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2</v>
+          <t>20220901</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20220921</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>8</v>
+          <t>20220902</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20220923</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>3</v>
+          <t>20220904</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20220924</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>6</v>
+          <t>20220905</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20220926</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>6</v>
+          <t>20220906</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20220927</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>11</v>
+          <t>20220908</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20220928</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>6</v>
+          <t>20220909</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20220929</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>7</v>
+          <t>20220910</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20220930</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>6</v>
+          <t>20220911</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20221001</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>6</v>
+          <t>20220912</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20221002</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>8</v>
+          <t>20220913</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20221003</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>10</v>
+          <t>20220914</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20221004</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2</v>
+          <t>20220916</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20221005</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>6</v>
+          <t>20220917</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20221006</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>8</v>
+          <t>20220919</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20221007</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>5</v>
+          <t>20220920</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20221011</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>3</v>
+          <t>20220921</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20221012</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>1</v>
+          <t>20220923</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20221013</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2</v>
+          <t>20220924</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20221015</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
+          <t>20220926</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20221016</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>1</v>
+          <t>20220927</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20221017</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>1</v>
+          <t>20220928</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20221018</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2</v>
+          <t>20220929</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20221019</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>6</v>
+          <t>20220930</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20221020</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>7</v>
+          <t>20221001</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20221021</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>5</v>
+          <t>20221002</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20221023</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2</v>
+          <t>20221003</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20221025</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
+          <t>20221004</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20221027</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
+          <t>20221005</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20221028</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0</v>
+          <t>20221006</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20221029</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
+          <t>20221007</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20221031</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
+          <t>20221011</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20221030</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>16</v>
+          <t>20221012</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20221102</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>3</v>
+          <t>20221013</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20221103</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>2</v>
+          <t>20221015</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20221104</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
+          <t>20221016</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20221105</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
+          <t>20221017</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20221106</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>6</v>
+          <t>20221018</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20221107</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2</v>
+          <t>20221019</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20221108</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2</v>
+          <t>20221020</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20221109</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0</v>
+          <t>20221021</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20221110</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2</v>
+          <t>20221023</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20221111</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
+          <t>20221025</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20221112</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
+          <t>20221027</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20221113</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0</v>
+          <t>20221028</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20221114</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0</v>
+          <t>20221029</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20221115</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
+          <t>20221031</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20221116</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0</v>
+          <t>20221030</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20221117</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
+          <t>20221102</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20221118</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
+          <t>20221103</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20221119</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
+          <t>20221104</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20221120</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>4</v>
+          <t>20221105</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20221121</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
+          <t>20221106</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20221122</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
+          <t>20221107</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20221123</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>5</v>
+          <t>20221108</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20221124</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>4</v>
+          <t>20221109</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20221125</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2</v>
+          <t>20221110</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20221126</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>1</v>
+          <t>20221111</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20221127</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>4</v>
+          <t>20221112</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20221201</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>1</v>
+          <t>20221113</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20221202</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>3</v>
+          <t>20221114</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20221203</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2</v>
+          <t>20221115</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20221204</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>3</v>
+          <t>20221116</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20221205</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2</v>
+          <t>20221117</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20221206</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2</v>
+          <t>20221118</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20221207</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
+          <t>20221119</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20221209</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>3</v>
+          <t>20221120</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20221210</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0</v>
+          <t>20221121</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20221211</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>4</v>
+          <t>20221122</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20221212</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>0</v>
+          <t>20221123</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20221213</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>0</v>
+          <t>20221124</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20221214</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>3</v>
+          <t>20221125</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20221215</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>0</v>
+          <t>20221126</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20221216</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>0</v>
+          <t>20221127</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20221217</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>0</v>
+          <t>20221201</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20221218</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>0</v>
+          <t>20221202</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20221219</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>0</v>
+          <t>20221203</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20221220</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>0</v>
+          <t>20221204</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20221221</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>1</v>
+          <t>20221205</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20221222</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>0</v>
+          <t>20221206</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20221223</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>1</v>
+          <t>20221207</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20221224</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>0</v>
+          <t>20221209</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20221225</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>0</v>
+          <t>20221210</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20221226</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>0</v>
+          <t>20221211</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20221227</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>1</v>
+          <t>20221212</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20221228</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
+          <t>20221213</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20221229</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
+          <t>20221214</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20221230</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
+          <t>20221215</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20230101</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>0</v>
+          <t>20221216</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20230102</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>0</v>
+          <t>20221217</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20230103</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>0</v>
+          <t>20221218</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20230104</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>0</v>
+          <t>20221219</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20230105</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>0</v>
+          <t>20221220</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20230106</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>0</v>
+          <t>20221221</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20230107</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>0</v>
+          <t>20221222</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20230108</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>0</v>
+          <t>20221223</t>
+        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20230109</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>1</v>
+          <t>20221224</t>
+        </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20230110</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>0</v>
+          <t>20221225</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20230111</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>0</v>
+          <t>20221226</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20230112</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>0</v>
+          <t>20221227</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20230113</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>0</v>
+          <t>20221228</t>
+        </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20230114</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>0</v>
+          <t>20221229</t>
+        </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20230115</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>0</v>
+          <t>20221230</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20230116</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>0</v>
+          <t>20230101</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20230117</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>0</v>
+          <t>20230102</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20230118</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>0</v>
+          <t>20230103</t>
+        </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20230119</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>0</v>
+          <t>20230104</t>
+        </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20230120</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>0</v>
+          <t>20230105</t>
+        </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20230121</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>0</v>
+          <t>20230106</t>
+        </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20230122</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>0</v>
+          <t>20230107</t>
+        </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20230123</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>0</v>
+          <t>20230108</t>
+        </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20230124</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>0</v>
+          <t>20230109</t>
+        </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20230125</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
+          <t>20230110</t>
+        </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20230126</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>1</v>
+          <t>20230111</t>
+        </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20230127</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>0</v>
+          <t>20230112</t>
+        </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20230128</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
+          <t>20230113</t>
+        </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20230129</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>0</v>
+          <t>20230114</t>
+        </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20230130</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>0</v>
+          <t>20230115</t>
+        </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20230131</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>0</v>
+          <t>20230116</t>
+        </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20230201</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>0</v>
+          <t>20230117</t>
+        </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20230202</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>0</v>
+          <t>20230118</t>
+        </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20230203</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>0</v>
+          <t>20230119</t>
+        </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20230205</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>0</v>
+          <t>20230120</t>
+        </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20230209</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>0</v>
+          <t>20230121</t>
+        </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20230210</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>0</v>
+          <t>20230122</t>
+        </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20230211</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>0</v>
+          <t>20230123</t>
+        </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20230212</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
+          <t>20230124</t>
+        </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20230213</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>0</v>
+          <t>20230125</t>
+        </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20230214</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>0</v>
+          <t>20230126</t>
+        </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20230215</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>0</v>
+          <t>20230127</t>
+        </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20230217</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>0</v>
+          <t>20230128</t>
+        </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20230218</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>0</v>
+          <t>20230129</t>
+        </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20230219</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>0</v>
+          <t>20230130</t>
+        </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20230221</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>0</v>
+          <t>20230131</t>
+        </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20230222</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>0</v>
+          <t>20230201</t>
+        </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20230223</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>0</v>
+          <t>20230202</t>
+        </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20230224</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>0</v>
+          <t>20230203</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20230225</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>0</v>
+          <t>20230205</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20230226</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>0</v>
+          <t>20230209</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20230227</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>0</v>
+          <t>20230210</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20230228</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>0</v>
+          <t>20230211</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20230301</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>0</v>
+          <t>20230212</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20230302</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>0</v>
+          <t>20230213</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20230303</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>0</v>
+          <t>20230214</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20230304</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>0</v>
+          <t>20230215</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20230305</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>0</v>
+          <t>20230217</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20230306</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>0</v>
+          <t>20230218</t>
+        </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20230307</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>0</v>
+          <t>20230219</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20230308</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>0</v>
+          <t>20230221</t>
+        </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20230309</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>0</v>
+          <t>20230222</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20230310</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
+          <t>20230223</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20230311</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>0</v>
+          <t>20230224</t>
+        </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20230312</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>0</v>
+          <t>20230225</t>
+        </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20230313</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>0</v>
+          <t>20230226</t>
+        </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20230314</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>0</v>
+          <t>20230227</t>
+        </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20230315</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
+          <t>20230228</t>
+        </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20230316</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>0</v>
+          <t>20230301</t>
+        </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20230317</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>0</v>
+          <t>20230302</t>
+        </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20230318</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>0</v>
+          <t>20230303</t>
+        </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20230319</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0</v>
+          <t>20230304</t>
+        </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20230320</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>0</v>
+          <t>20230305</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20230321</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>0</v>
+          <t>20230306</t>
+        </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20230322</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>0</v>
+          <t>20230307</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20230323</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>0</v>
+          <t>20230308</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20230324</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>0</v>
+          <t>20230309</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20230325</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>1</v>
+          <t>20230310</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20230326</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>0</v>
+          <t>20230311</t>
+        </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20230327</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>0</v>
+          <t>20230312</t>
+        </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20230328</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>0</v>
+          <t>20230313</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20230329</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>0</v>
+          <t>20230314</t>
+        </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20230330</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>0</v>
+          <t>20230315</t>
+        </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20230331</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>0</v>
+          <t>20230316</t>
+        </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20230401</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>0</v>
+          <t>20230317</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20230402</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>0</v>
+          <t>20230318</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20230403</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>0</v>
+          <t>20230319</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20230404</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>0</v>
+          <t>20230320</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20230405</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>0</v>
+          <t>20230321</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20230406</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>0</v>
+          <t>20230322</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20230407</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>0</v>
+          <t>20230323</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20230408</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>0</v>
+          <t>20230324</t>
+        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20230409</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>1</v>
+          <t>20230325</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20230410</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>0</v>
+          <t>20230326</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20230411</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>0</v>
+          <t>20230327</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20230412</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>1</v>
+          <t>20230328</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20230413</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>0</v>
+          <t>20230329</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20230414</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>0</v>
+          <t>20230330</t>
+        </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20230415</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>1</v>
+          <t>20230331</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20230416</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>0</v>
+          <t>20230401</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20230417</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>0</v>
+          <t>20230402</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20230418</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>0</v>
+          <t>20230403</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20230419</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>0</v>
+          <t>20230404</t>
+        </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20230420</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>1</v>
+          <t>20230405</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20230421</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>0</v>
+          <t>20230406</t>
+        </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20230422</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>0</v>
+          <t>20230407</t>
+        </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20230423</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>0</v>
+          <t>20230408</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20230424</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>0</v>
+          <t>20230409</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20230425</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr"/>
+          <t>20230410</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20230426</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>0</v>
+          <t>20230411</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>20230427</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>0</v>
+          <t>20230412</t>
+        </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>20230428</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>0</v>
+          <t>20230413</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>20230429</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>0</v>
+          <t>20230414</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>20230430</t>
-        </is>
-      </c>
-      <c r="B302" t="n">
-        <v>0</v>
+          <t>20230415</t>
+        </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>20230501</t>
-        </is>
-      </c>
-      <c r="B303" t="n">
-        <v>0</v>
+          <t>20230416</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20230502</t>
-        </is>
-      </c>
-      <c r="B304" t="n">
-        <v>0</v>
+          <t>20230417</t>
+        </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>20230503</t>
-        </is>
-      </c>
-      <c r="B305" t="n">
-        <v>0</v>
+          <t>20230418</t>
+        </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>20230504</t>
-        </is>
-      </c>
-      <c r="B306" t="n">
-        <v>0</v>
+          <t>20230419</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>20230505</t>
-        </is>
-      </c>
-      <c r="B307" t="n">
-        <v>0</v>
+          <t>20230420</t>
+        </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>20230506</t>
-        </is>
-      </c>
-      <c r="B308" t="n">
-        <v>0</v>
+          <t>20230421</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>20230507</t>
-        </is>
-      </c>
-      <c r="B309" t="n">
-        <v>0</v>
+          <t>20230422</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>20230508</t>
-        </is>
-      </c>
-      <c r="B310" t="n">
-        <v>0</v>
+          <t>20230423</t>
+        </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>20230509</t>
-        </is>
-      </c>
-      <c r="B311" t="n">
-        <v>0</v>
+          <t>20230424</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20230510</t>
-        </is>
-      </c>
-      <c r="B312" t="n">
-        <v>0</v>
+          <t>20230425</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20230511</t>
-        </is>
-      </c>
-      <c r="B313" t="n">
-        <v>0</v>
+          <t>20230426</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20230512</t>
-        </is>
-      </c>
-      <c r="B314" t="n">
-        <v>0</v>
+          <t>20230427</t>
+        </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20230514</t>
-        </is>
-      </c>
-      <c r="B315" t="n">
-        <v>0</v>
+          <t>20230428</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20230515</t>
-        </is>
-      </c>
-      <c r="B316" t="n">
-        <v>0</v>
+          <t>20230429</t>
+        </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20230516</t>
-        </is>
-      </c>
-      <c r="B317" t="n">
-        <v>0</v>
+          <t>20230430</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20230517</t>
-        </is>
-      </c>
-      <c r="B318" t="n">
-        <v>0</v>
+          <t>20230501</t>
+        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20230518</t>
-        </is>
-      </c>
-      <c r="B319" t="n">
-        <v>1</v>
+          <t>20230502</t>
+        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20230519</t>
-        </is>
-      </c>
-      <c r="B320" t="n">
-        <v>0</v>
+          <t>20230503</t>
+        </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20230520</t>
-        </is>
-      </c>
-      <c r="B321" t="n">
-        <v>1</v>
+          <t>20230504</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>20230521</t>
-        </is>
-      </c>
-      <c r="B322" t="n">
-        <v>0</v>
+          <t>20230505</t>
+        </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>20230522</t>
-        </is>
-      </c>
-      <c r="B323" t="n">
-        <v>0</v>
+          <t>20230506</t>
+        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>20230523</t>
-        </is>
-      </c>
-      <c r="B324" t="n">
-        <v>0</v>
+          <t>20230507</t>
+        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20230524</t>
-        </is>
-      </c>
-      <c r="B325" t="n">
-        <v>0</v>
+          <t>20230508</t>
+        </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>20230525</t>
-        </is>
-      </c>
-      <c r="B326" t="n">
-        <v>0</v>
+          <t>20230509</t>
+        </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>20230526</t>
-        </is>
-      </c>
-      <c r="B327" t="n">
-        <v>0</v>
+          <t>20230510</t>
+        </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>20230527</t>
-        </is>
-      </c>
-      <c r="B328" t="n">
-        <v>0</v>
+          <t>20230511</t>
+        </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>20230528</t>
-        </is>
-      </c>
-      <c r="B329" t="n">
-        <v>0</v>
+          <t>20230512</t>
+        </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>20230529</t>
-        </is>
-      </c>
-      <c r="B330" t="n">
-        <v>1</v>
+          <t>20230514</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>20230530</t>
-        </is>
-      </c>
-      <c r="B331" t="n">
-        <v>0</v>
+          <t>20230515</t>
+        </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20230531</t>
-        </is>
-      </c>
-      <c r="B332" t="n">
-        <v>1</v>
+          <t>20230516</t>
+        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>20230601</t>
-        </is>
-      </c>
-      <c r="B333" t="n">
-        <v>0</v>
+          <t>20230517</t>
+        </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>20230602</t>
-        </is>
-      </c>
-      <c r="B334" t="n">
-        <v>0</v>
+          <t>20230518</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>20230603</t>
-        </is>
-      </c>
-      <c r="B335" t="n">
-        <v>1</v>
+          <t>20230519</t>
+        </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>20230604</t>
-        </is>
-      </c>
-      <c r="B336" t="n">
-        <v>0</v>
+          <t>20230520</t>
+        </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20230605</t>
-        </is>
-      </c>
-      <c r="B337" t="n">
-        <v>0</v>
+          <t>20230521</t>
+        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>20230606</t>
-        </is>
-      </c>
-      <c r="B338" t="n">
-        <v>0</v>
+          <t>20230522</t>
+        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>20230607</t>
-        </is>
-      </c>
-      <c r="B339" t="n">
-        <v>0</v>
+          <t>20230523</t>
+        </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>20230608</t>
-        </is>
-      </c>
-      <c r="B340" t="n">
-        <v>1</v>
+          <t>20230524</t>
+        </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>20230609</t>
-        </is>
-      </c>
-      <c r="B341" t="n">
-        <v>0</v>
+          <t>20230525</t>
+        </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>20230610</t>
-        </is>
-      </c>
-      <c r="B342" t="n">
-        <v>0</v>
+          <t>20230526</t>
+        </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20230611</t>
-        </is>
-      </c>
-      <c r="B343" t="n">
-        <v>0</v>
+          <t>20230527</t>
+        </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>20230612</t>
-        </is>
-      </c>
-      <c r="B344" t="n">
-        <v>0</v>
+          <t>20230528</t>
+        </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>20230613</t>
-        </is>
-      </c>
-      <c r="B345" t="n">
-        <v>0</v>
+          <t>20230529</t>
+        </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>20230614</t>
-        </is>
-      </c>
-      <c r="B346" t="n">
-        <v>2</v>
+          <t>20230530</t>
+        </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>20230615</t>
-        </is>
-      </c>
-      <c r="B347" t="n">
-        <v>1</v>
+          <t>20230531</t>
+        </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>20230616</t>
-        </is>
-      </c>
-      <c r="B348" t="n">
-        <v>1</v>
+          <t>20230601</t>
+        </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>20230617</t>
-        </is>
-      </c>
-      <c r="B349" t="n">
-        <v>4</v>
+          <t>20230602</t>
+        </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>20230618</t>
-        </is>
-      </c>
-      <c r="B350" t="n">
-        <v>0</v>
+          <t>20230603</t>
+        </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>20230619</t>
-        </is>
-      </c>
-      <c r="B351" t="n">
-        <v>1</v>
+          <t>20230604</t>
+        </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>20230620</t>
-        </is>
-      </c>
-      <c r="B352" t="n">
-        <v>2</v>
+          <t>20230605</t>
+        </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>20230621</t>
-        </is>
-      </c>
-      <c r="B353" t="n">
-        <v>0</v>
+          <t>20230606</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>20230622</t>
-        </is>
-      </c>
-      <c r="B354" t="n">
-        <v>0</v>
+          <t>20230607</t>
+        </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>20230623</t>
-        </is>
-      </c>
-      <c r="B355" t="n">
-        <v>0</v>
+          <t>20230608</t>
+        </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>20230624</t>
-        </is>
-      </c>
-      <c r="B356" t="n">
-        <v>3</v>
+          <t>20230609</t>
+        </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>20230625</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>1</v>
+          <t>20230610</t>
+        </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>20230626</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>0</v>
+          <t>20230611</t>
+        </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>20230627</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>1</v>
+          <t>20230612</t>
+        </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20230628</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>0</v>
+          <t>20230613</t>
+        </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20230629</t>
-        </is>
-      </c>
-      <c r="B361" t="n">
-        <v>0</v>
+          <t>20230614</t>
+        </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>20230630</t>
-        </is>
-      </c>
-      <c r="B362" t="n">
-        <v>1</v>
+          <t>20230615</t>
+        </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20230701</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr"/>
+          <t>20230616</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>20230702</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>3</v>
+          <t>20230617</t>
+        </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>20230703</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr"/>
+          <t>20230618</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>20230704</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
+          <t>20230619</t>
+        </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>20230705</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>3</v>
+          <t>20230620</t>
+        </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>20230706</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>8</v>
+          <t>20230621</t>
+        </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>20230707</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>4</v>
+          <t>20230622</t>
+        </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>20230708</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>6</v>
+          <t>20230623</t>
+        </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>20230709</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>6</v>
+          <t>20230624</t>
+        </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>20230710</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>7</v>
+          <t>20230625</t>
+        </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>20230711</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>12</v>
+          <t>20230626</t>
+        </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>20230712</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>9</v>
+          <t>20230627</t>
+        </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>20230713</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>4</v>
+          <t>20230628</t>
+        </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>20230714</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>4</v>
+          <t>20230629</t>
+        </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>20230715</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>11</v>
+          <t>20230630</t>
+        </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>20230716</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>3</v>
+          <t>20230701</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>20230717</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>5</v>
+          <t>20230702</t>
+        </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>20230718</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>0</v>
+          <t>20230703</t>
+        </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>20230719</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>0</v>
+          <t>20230704</t>
+        </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>20230720</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
+          <t>20230705</t>
+        </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>20230721</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>8</v>
+          <t>20230706</t>
+        </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>20230722</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>8</v>
+          <t>20230707</t>
+        </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>20230723</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>9</v>
+          <t>20230708</t>
+        </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>20230725</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>8</v>
+          <t>20230709</t>
+        </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>20230726</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>5</v>
+          <t>20230710</t>
+        </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>20230727</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>3</v>
+          <t>20230711</t>
+        </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>20230728</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>9</v>
+          <t>20230712</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>20230729</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>11</v>
+          <t>20230713</t>
+        </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>20230730</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>4</v>
+          <t>20230714</t>
+        </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>20230731</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>5</v>
+          <t>20230715</t>
+        </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>20230801</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>5</v>
+          <t>20230716</t>
+        </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>20230802</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>5</v>
+          <t>20230717</t>
+        </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>20230803</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>10</v>
+          <t>20230718</t>
+        </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>20230804</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>6</v>
+          <t>20230719</t>
+        </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>20230805</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>4</v>
+          <t>20230720</t>
+        </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>20230806</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr"/>
+          <t>20230721</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>20230807</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>6</v>
+          <t>20230722</t>
+        </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>20230808</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>4</v>
+          <t>20230723</t>
+        </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>20230809</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>5</v>
+          <t>20230725</t>
+        </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>20230810</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>3</v>
+          <t>20230726</t>
+        </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>20230811</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>5</v>
+          <t>20230727</t>
+        </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>20230812</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>11</v>
+          <t>20230728</t>
+        </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>20230813</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>4</v>
+          <t>20230729</t>
+        </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>20230814</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>6</v>
+          <t>20230730</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>20230815</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>7</v>
+          <t>20230731</t>
+        </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>20230816</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>6</v>
+          <t>20230801</t>
+        </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>20230817</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>6</v>
+          <t>20230802</t>
+        </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>20230818</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>9</v>
+          <t>20230803</t>
+        </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>20230819</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>4</v>
+          <t>20230804</t>
+        </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>20230820</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>8</v>
+          <t>20230805</t>
+        </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>20230821</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>3</v>
+          <t>20230806</t>
+        </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>20230822</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>3</v>
+          <t>20230807</t>
+        </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>20230823</t>
-        </is>
-      </c>
-      <c r="B415" t="n">
-        <v>2</v>
+          <t>20230808</t>
+        </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>20230824</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>6</v>
+          <t>20230809</t>
+        </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>20230825</t>
-        </is>
-      </c>
-      <c r="B417" t="n">
-        <v>9</v>
+          <t>20230810</t>
+        </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>20230826</t>
-        </is>
-      </c>
-      <c r="B418" t="n">
-        <v>12</v>
+          <t>20230811</t>
+        </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>20230827</t>
-        </is>
-      </c>
-      <c r="B419" t="n">
-        <v>2</v>
+          <t>20230812</t>
+        </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>20230828</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>7</v>
+          <t>20230813</t>
+        </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>20230829</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>7</v>
+          <t>20230814</t>
+        </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>20230830</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>6</v>
+          <t>20230815</t>
+        </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>20230831</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>5</v>
+          <t>20230816</t>
+        </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>20230901</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>4</v>
+          <t>20230817</t>
+        </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>20230902</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>4</v>
+          <t>20230818</t>
+        </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>20230903</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>6</v>
+          <t>20230819</t>
+        </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>20230904</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>5</v>
+          <t>20230820</t>
+        </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>20230905</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>5</v>
+          <t>20230821</t>
+        </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>20230906</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>8</v>
+          <t>20230822</t>
+        </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>20230907</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr"/>
+          <t>20230823</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>20230908</t>
-        </is>
-      </c>
-      <c r="B431" t="n">
-        <v>6</v>
+          <t>20230824</t>
+        </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>20230909</t>
-        </is>
-      </c>
-      <c r="B432" t="n">
-        <v>4</v>
+          <t>20230825</t>
+        </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>20230910</t>
-        </is>
-      </c>
-      <c r="B433" t="n">
-        <v>4</v>
+          <t>20230826</t>
+        </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>20230911</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr"/>
+          <t>20230827</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>20230912</t>
-        </is>
-      </c>
-      <c r="B435" t="n">
-        <v>13</v>
+          <t>20230828</t>
+        </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>20230913</t>
-        </is>
-      </c>
-      <c r="B436" t="n">
-        <v>7</v>
+          <t>20230829</t>
+        </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>20230914</t>
-        </is>
-      </c>
-      <c r="B437" t="n">
-        <v>2</v>
+          <t>20230830</t>
+        </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>20230915</t>
-        </is>
-      </c>
-      <c r="B438" t="n">
-        <v>4</v>
+          <t>20230831</t>
+        </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>20230916</t>
-        </is>
-      </c>
-      <c r="B439" t="n">
-        <v>7</v>
+          <t>20230901</t>
+        </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>20230917</t>
-        </is>
-      </c>
-      <c r="B440" t="n">
-        <v>0</v>
+          <t>20230902</t>
+        </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>20230918</t>
-        </is>
-      </c>
-      <c r="B441" t="n">
-        <v>4</v>
+          <t>20230903</t>
+        </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>20230919</t>
-        </is>
-      </c>
-      <c r="B442" t="n">
-        <v>4</v>
+          <t>20230904</t>
+        </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>20230920</t>
-        </is>
-      </c>
-      <c r="B443" t="n">
-        <v>5</v>
+          <t>20230905</t>
+        </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>20230921</t>
-        </is>
-      </c>
-      <c r="B444" t="n">
-        <v>8</v>
+          <t>20230906</t>
+        </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>20230922</t>
-        </is>
-      </c>
-      <c r="B445" t="n">
-        <v>2</v>
+          <t>20230907</t>
+        </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>20230923</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr"/>
+          <t>20230908</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>20230924</t>
-        </is>
-      </c>
-      <c r="B447" t="n">
-        <v>0</v>
+          <t>20230909</t>
+        </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>20230925</t>
-        </is>
-      </c>
-      <c r="B448" t="n">
-        <v>2</v>
+          <t>20230910</t>
+        </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>20230926</t>
-        </is>
-      </c>
-      <c r="B449" t="n">
-        <v>2</v>
+          <t>20230911</t>
+        </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>20230927</t>
-        </is>
-      </c>
-      <c r="B450" t="n">
-        <v>3</v>
+          <t>20230912</t>
+        </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>20230928</t>
-        </is>
-      </c>
-      <c r="B451" t="n">
-        <v>7</v>
+          <t>20230913</t>
+        </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>20230929</t>
-        </is>
-      </c>
-      <c r="B452" t="n">
-        <v>3</v>
+          <t>20230914</t>
+        </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>20230930</t>
-        </is>
-      </c>
-      <c r="B453" t="n">
-        <v>7</v>
+          <t>20230915</t>
+        </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>20231001</t>
-        </is>
-      </c>
-      <c r="B454" t="n">
-        <v>5</v>
+          <t>20230916</t>
+        </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>20231002</t>
-        </is>
-      </c>
-      <c r="B455" t="n">
-        <v>2</v>
+          <t>20230917</t>
+        </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>20231003</t>
-        </is>
-      </c>
-      <c r="B456" t="n">
-        <v>5</v>
+          <t>20230918</t>
+        </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>20231004</t>
-        </is>
-      </c>
-      <c r="B457" t="n">
-        <v>3</v>
+          <t>20230919</t>
+        </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>20231005</t>
-        </is>
-      </c>
-      <c r="B458" t="n">
-        <v>2</v>
+          <t>20230920</t>
+        </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>20231006</t>
-        </is>
-      </c>
-      <c r="B459" t="n">
-        <v>1</v>
+          <t>20230921</t>
+        </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>20231007</t>
-        </is>
-      </c>
-      <c r="B460" t="n">
-        <v>5</v>
+          <t>20230922</t>
+        </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>20231008</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr"/>
+          <t>20230923</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>20231009</t>
-        </is>
-      </c>
-      <c r="B462" t="n">
-        <v>3</v>
+          <t>20230924</t>
+        </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>20231010</t>
-        </is>
-      </c>
-      <c r="B463" t="n">
-        <v>4</v>
+          <t>20230925</t>
+        </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>20231011</t>
-        </is>
-      </c>
-      <c r="B464" t="n">
-        <v>6</v>
+          <t>20230926</t>
+        </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>20231012</t>
-        </is>
-      </c>
-      <c r="B465" t="n">
-        <v>3</v>
+          <t>20230927</t>
+        </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>20231013</t>
-        </is>
-      </c>
-      <c r="B466" t="n">
-        <v>3</v>
+          <t>20230928</t>
+        </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>20231014</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
+          <t>20230929</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>20231015</t>
-        </is>
-      </c>
-      <c r="B468" t="n">
-        <v>2</v>
+          <t>20230930</t>
+        </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>20231016</t>
-        </is>
-      </c>
-      <c r="B469" t="n">
-        <v>3</v>
+          <t>20231001</t>
+        </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>20231017</t>
-        </is>
-      </c>
-      <c r="B470" t="n">
-        <v>2</v>
+          <t>20231002</t>
+        </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>20231018</t>
-        </is>
-      </c>
-      <c r="B471" t="n">
-        <v>3</v>
+          <t>20231003</t>
+        </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>20231019</t>
-        </is>
-      </c>
-      <c r="B472" t="n">
-        <v>2</v>
+          <t>20231004</t>
+        </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>20231020</t>
-        </is>
-      </c>
-      <c r="B473" t="n">
-        <v>3</v>
+          <t>20231005</t>
+        </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>20231021</t>
-        </is>
-      </c>
-      <c r="B474" t="n">
-        <v>2</v>
+          <t>20231006</t>
+        </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>20231022</t>
-        </is>
-      </c>
-      <c r="B475" t="n">
-        <v>3</v>
+          <t>20231007</t>
+        </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>20231023</t>
-        </is>
-      </c>
-      <c r="B476" t="n">
-        <v>6</v>
+          <t>20231008</t>
+        </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>20231024</t>
-        </is>
-      </c>
-      <c r="B477" t="n">
-        <v>7</v>
+          <t>20231009</t>
+        </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>20231025</t>
-        </is>
-      </c>
-      <c r="B478" t="n">
-        <v>6</v>
+          <t>20231010</t>
+        </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>20231026</t>
-        </is>
-      </c>
-      <c r="B479" t="n">
-        <v>3</v>
+          <t>20231011</t>
+        </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>20231027</t>
-        </is>
-      </c>
-      <c r="B480" t="n">
-        <v>6</v>
+          <t>20231012</t>
+        </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>20231028</t>
-        </is>
-      </c>
-      <c r="B481" t="n">
-        <v>0</v>
+          <t>20231013</t>
+        </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>20231029</t>
-        </is>
-      </c>
-      <c r="B482" t="n">
-        <v>7</v>
+          <t>20231014</t>
+        </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>20231030</t>
-        </is>
-      </c>
-      <c r="B483" t="n">
-        <v>4</v>
+          <t>20231015</t>
+        </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>20231101</t>
-        </is>
-      </c>
-      <c r="B484" t="n">
-        <v>5</v>
+          <t>20231016</t>
+        </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>20231102</t>
-        </is>
-      </c>
-      <c r="B485" t="n">
-        <v>1</v>
+          <t>20231017</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>20231103</t>
-        </is>
-      </c>
-      <c r="B486" t="n">
-        <v>2</v>
+          <t>20231018</t>
+        </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>20231104</t>
-        </is>
-      </c>
-      <c r="B487" t="n">
-        <v>0</v>
+          <t>20231019</t>
+        </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>20231105</t>
-        </is>
-      </c>
-      <c r="B488" t="n">
-        <v>2</v>
+          <t>20231020</t>
+        </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>20231106</t>
-        </is>
-      </c>
-      <c r="B489" t="n">
-        <v>2</v>
+          <t>20231021</t>
+        </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>20231107</t>
-        </is>
-      </c>
-      <c r="B490" t="n">
-        <v>2</v>
+          <t>20231022</t>
+        </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>20231108</t>
-        </is>
-      </c>
-      <c r="B491" t="n">
-        <v>5</v>
+          <t>20231023</t>
+        </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>20231109</t>
-        </is>
-      </c>
-      <c r="B492" t="n">
-        <v>3</v>
+          <t>20231024</t>
+        </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>20231110</t>
-        </is>
-      </c>
-      <c r="B493" t="n">
-        <v>4</v>
+          <t>20231025</t>
+        </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>20231111</t>
-        </is>
-      </c>
-      <c r="B494" t="n">
-        <v>6</v>
+          <t>20231026</t>
+        </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>20231112</t>
-        </is>
-      </c>
-      <c r="B495" t="n">
-        <v>3</v>
+          <t>20231027</t>
+        </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>20231113</t>
-        </is>
-      </c>
-      <c r="B496" t="n">
-        <v>3</v>
+          <t>20231028</t>
+        </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>20231114</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr"/>
+          <t>20231029</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>20231115</t>
-        </is>
-      </c>
-      <c r="B498" t="n">
-        <v>2</v>
+          <t>20231030</t>
+        </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>20231116</t>
-        </is>
-      </c>
-      <c r="B499" t="n">
-        <v>3</v>
+          <t>20231101</t>
+        </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>20231117</t>
-        </is>
-      </c>
-      <c r="B500" t="n">
-        <v>2</v>
+          <t>20231102</t>
+        </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>20231118</t>
-        </is>
-      </c>
-      <c r="B501" t="n">
-        <v>3</v>
+          <t>20231103</t>
+        </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>20231119</t>
-        </is>
-      </c>
-      <c r="B502" t="n">
-        <v>2</v>
+          <t>20231104</t>
+        </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>20231120</t>
-        </is>
-      </c>
-      <c r="B503" t="n">
-        <v>3</v>
+          <t>20231105</t>
+        </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>20231121</t>
-        </is>
-      </c>
-      <c r="B504" t="n">
-        <v>2</v>
+          <t>20231106</t>
+        </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>20231122</t>
-        </is>
-      </c>
-      <c r="B505" t="n">
-        <v>0</v>
+          <t>20231107</t>
+        </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>20231123</t>
-        </is>
-      </c>
-      <c r="B506" t="n">
-        <v>5</v>
+          <t>20231108</t>
+        </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>20231124</t>
-        </is>
-      </c>
-      <c r="B507" t="n">
-        <v>2</v>
+          <t>20231109</t>
+        </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>20231125</t>
-        </is>
-      </c>
-      <c r="B508" t="n">
-        <v>0</v>
+          <t>20231110</t>
+        </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>20231126</t>
-        </is>
-      </c>
-      <c r="B509" t="n">
-        <v>2</v>
+          <t>20231111</t>
+        </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>20231127</t>
-        </is>
-      </c>
-      <c r="B510" t="n">
-        <v>2</v>
+          <t>20231112</t>
+        </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>20231128</t>
-        </is>
-      </c>
-      <c r="B511" t="n">
-        <v>5</v>
+          <t>20231113</t>
+        </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>20231129</t>
-        </is>
-      </c>
-      <c r="B512" t="n">
-        <v>1</v>
+          <t>20231114</t>
+        </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>20231130</t>
-        </is>
-      </c>
-      <c r="B513" t="n">
-        <v>0</v>
+          <t>20231115</t>
+        </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>20231201</t>
-        </is>
-      </c>
-      <c r="B514" t="n">
-        <v>3</v>
+          <t>20231116</t>
+        </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>20231202</t>
-        </is>
-      </c>
-      <c r="B515" t="n">
-        <v>1</v>
+          <t>20231117</t>
+        </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>20231203</t>
-        </is>
-      </c>
-      <c r="B516" t="n">
-        <v>2</v>
+          <t>20231118</t>
+        </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>20231204</t>
-        </is>
-      </c>
-      <c r="B517" t="n">
-        <v>0</v>
+          <t>20231119</t>
+        </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>20231205</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>2</v>
+          <t>20231120</t>
+        </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>20231206</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>1</v>
+          <t>20231121</t>
+        </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>20231207</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>2</v>
+          <t>20231122</t>
+        </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>20231208</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>5</v>
+          <t>20231123</t>
+        </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>20231209</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>3</v>
+          <t>20231124</t>
+        </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>20231210</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>4</v>
+          <t>20231125</t>
+        </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>20231211</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>6</v>
+          <t>20231126</t>
+        </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>20231212</t>
-        </is>
-      </c>
-      <c r="B525" t="n">
-        <v>3</v>
+          <t>20231127</t>
+        </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>20231213</t>
-        </is>
-      </c>
-      <c r="B526" t="n">
-        <v>1</v>
+          <t>20231128</t>
+        </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>20231214</t>
-        </is>
-      </c>
-      <c r="B527" t="n">
-        <v>0</v>
+          <t>20231129</t>
+        </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>20231215</t>
-        </is>
-      </c>
-      <c r="B528" t="n">
-        <v>0</v>
+          <t>20231130</t>
+        </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>20231216</t>
-        </is>
-      </c>
-      <c r="B529" t="n">
-        <v>3</v>
+          <t>20231201</t>
+        </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>20231217</t>
-        </is>
-      </c>
-      <c r="B530" t="n">
-        <v>2</v>
+          <t>20231202</t>
+        </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>20231218</t>
-        </is>
-      </c>
-      <c r="B531" t="n">
-        <v>3</v>
+          <t>20231203</t>
+        </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>20231219</t>
-        </is>
-      </c>
-      <c r="B532" t="n">
-        <v>2</v>
+          <t>20231204</t>
+        </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>20231220</t>
-        </is>
-      </c>
-      <c r="B533" t="n">
-        <v>3</v>
+          <t>20231205</t>
+        </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>20231221</t>
-        </is>
-      </c>
-      <c r="B534" t="n">
-        <v>2</v>
+          <t>20231206</t>
+        </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>20231222</t>
-        </is>
-      </c>
-      <c r="B535" t="n">
-        <v>1</v>
+          <t>20231207</t>
+        </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>20231223</t>
-        </is>
-      </c>
-      <c r="B536" t="n">
-        <v>3</v>
+          <t>20231208</t>
+        </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>20231224</t>
-        </is>
-      </c>
-      <c r="B537" t="n">
-        <v>0</v>
+          <t>20231209</t>
+        </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>20231225</t>
-        </is>
-      </c>
-      <c r="B538" t="n">
-        <v>0</v>
+          <t>20231210</t>
+        </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>20231226</t>
-        </is>
-      </c>
-      <c r="B539" t="n">
-        <v>0</v>
+          <t>20231211</t>
+        </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>20190901</t>
-        </is>
-      </c>
-      <c r="B540" t="n">
-        <v>4</v>
+          <t>20231212</t>
+        </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>20190902</t>
-        </is>
-      </c>
-      <c r="B541" t="n">
-        <v>3</v>
+          <t>20231213</t>
+        </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>20190903</t>
-        </is>
-      </c>
-      <c r="B542" t="n">
-        <v>5</v>
+          <t>20231214</t>
+        </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>20190906</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>7</v>
+          <t>20231215</t>
+        </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>20190907</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>3</v>
+          <t>20231216</t>
+        </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>20190908</t>
-        </is>
-      </c>
-      <c r="B545" t="n">
-        <v>1</v>
+          <t>20231217</t>
+        </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>20190910</t>
-        </is>
-      </c>
-      <c r="B546" t="n">
-        <v>2</v>
+          <t>20231218</t>
+        </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>20190911</t>
-        </is>
-      </c>
-      <c r="B547" t="n">
-        <v>2</v>
+          <t>20231219</t>
+        </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>20190912</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20231220</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>20190913</t>
-        </is>
-      </c>
-      <c r="B549" t="n">
-        <v>2</v>
+          <t>20231221</t>
+        </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>20190914</t>
-        </is>
-      </c>
-      <c r="B550" t="n">
-        <v>4</v>
+          <t>20231222</t>
+        </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>20190915</t>
-        </is>
-      </c>
-      <c r="B551" t="n">
-        <v>3</v>
+          <t>20231223</t>
+        </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>20190916</t>
-        </is>
-      </c>
-      <c r="B552" t="n">
-        <v>1</v>
+          <t>20231224</t>
+        </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>20190917</t>
-        </is>
-      </c>
-      <c r="B553" t="n">
-        <v>1</v>
+          <t>20231225</t>
+        </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>20190918</t>
-        </is>
-      </c>
-      <c r="B554" t="n">
-        <v>2</v>
+          <t>20231226</t>
+        </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>20190919</t>
-        </is>
-      </c>
-      <c r="B555" t="n">
-        <v>1</v>
+          <t>20190901</t>
+        </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>20190920</t>
-        </is>
-      </c>
-      <c r="B556" t="n">
-        <v>3</v>
+          <t>20190902</t>
+        </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>20190921</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190903</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>20190922</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190906</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>20190923</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190907</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>20190924</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190908</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>20190927</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190910</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>20190928</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190911</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>20190929</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190912</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>20190930</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190913</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>20191001</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190914</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>20191002</t>
-        </is>
-      </c>
-      <c r="B566" t="n">
-        <v>1</v>
+          <t>20190915</t>
+        </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>20191003</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190916</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>20191004</t>
-        </is>
-      </c>
-      <c r="B568" t="n">
-        <v>1</v>
+          <t>20190917</t>
+        </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>20191005</t>
-        </is>
-      </c>
-      <c r="B569" t="n">
-        <v>1</v>
+          <t>20190918</t>
+        </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>20191006</t>
-        </is>
-      </c>
-      <c r="B570" t="n">
-        <v>1</v>
+          <t>20190919</t>
+        </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>20191007</t>
-        </is>
-      </c>
-      <c r="B571" t="n">
-        <v>1</v>
+          <t>20190920</t>
+        </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>20191008</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190921</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>20191009</t>
-        </is>
-      </c>
-      <c r="B573" t="n">
-        <v>1</v>
+          <t>20190922</t>
+        </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>20191010</t>
-        </is>
-      </c>
-      <c r="B574" t="n">
-        <v>2</v>
+          <t>20190923</t>
+        </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>20191011</t>
-        </is>
-      </c>
-      <c r="B575" t="n">
-        <v>2</v>
+          <t>20190924</t>
+        </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>20191012</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190927</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>20191013</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190928</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>20191014</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20190929</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>20191015</t>
-        </is>
-      </c>
-      <c r="B579" t="n">
-        <v>1</v>
+          <t>20190930</t>
+        </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>20191016</t>
-        </is>
-      </c>
-      <c r="B580" t="n">
-        <v>2</v>
+          <t>20191001</t>
+        </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>20191017</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191002</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>20191018</t>
-        </is>
-      </c>
-      <c r="B582" t="n">
-        <v>1</v>
+          <t>20191003</t>
+        </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>20191019</t>
-        </is>
-      </c>
-      <c r="B583" t="n">
-        <v>1</v>
+          <t>20191004</t>
+        </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>20191020</t>
-        </is>
-      </c>
-      <c r="B584" t="n">
-        <v>2</v>
+          <t>20191005</t>
+        </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>20191021</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191006</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>20191022</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191007</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>20191023</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191008</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>20191024</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191009</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>20191025</t>
-        </is>
-      </c>
-      <c r="B589" t="n">
-        <v>1</v>
+          <t>20191010</t>
+        </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>20191026</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191011</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>20191027</t>
-        </is>
-      </c>
-      <c r="B591" t="n">
-        <v>1</v>
+          <t>20191012</t>
+        </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>20191028</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191013</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>20191029</t>
-        </is>
-      </c>
-      <c r="B593" t="n">
-        <v>1</v>
+          <t>20191014</t>
+        </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>20191030</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191015</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>20191031</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191016</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>20191101</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191017</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>20191102</t>
-        </is>
-      </c>
-      <c r="B597" t="n">
-        <v>2</v>
+          <t>20191018</t>
+        </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>20191103</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191019</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>20191104</t>
-        </is>
-      </c>
-      <c r="B599" t="n">
-        <v>1</v>
+          <t>20191020</t>
+        </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>20191105</t>
-        </is>
-      </c>
-      <c r="B600" t="n">
-        <v>2</v>
+          <t>20191021</t>
+        </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>20191106</t>
-        </is>
-      </c>
-      <c r="B601" t="n">
-        <v>1</v>
+          <t>20191022</t>
+        </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>20191107</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191023</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>20191108</t>
-        </is>
-      </c>
-      <c r="B603" t="n">
-        <v>1</v>
+          <t>20191024</t>
+        </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>20191109</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191025</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>20191110</t>
-        </is>
-      </c>
-      <c r="B605" t="n">
-        <v>2</v>
+          <t>20191026</t>
+        </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>20191111</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191027</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>20191112</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191028</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>20191113</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191029</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>20191114</t>
-        </is>
-      </c>
-      <c r="B609" t="n">
-        <v>2</v>
+          <t>20191030</t>
+        </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>20191115</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191031</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>20191116</t>
-        </is>
-      </c>
-      <c r="B611" t="n">
-        <v>2</v>
+          <t>20191101</t>
+        </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>20191117</t>
-        </is>
-      </c>
-      <c r="B612" t="n">
-        <v>1</v>
+          <t>20191102</t>
+        </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>20191118</t>
-        </is>
-      </c>
-      <c r="B613" t="n">
-        <v>2</v>
+          <t>20191103</t>
+        </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>20191119</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191104</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>20191120</t>
-        </is>
-      </c>
-      <c r="B615" t="n">
-        <v>2</v>
+          <t>20191105</t>
+        </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>20191121</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191106</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>20191122</t>
-        </is>
-      </c>
-      <c r="B617" t="n">
-        <v>1</v>
+          <t>20191107</t>
+        </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>20191123</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191108</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>20191125</t>
-        </is>
-      </c>
-      <c r="B619" t="n">
-        <v>1</v>
+          <t>20191109</t>
+        </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>20191126</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191110</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>20191127</t>
-        </is>
-      </c>
-      <c r="B621" t="n">
-        <v>2</v>
+          <t>20191111</t>
+        </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>20191128</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191112</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>20191129</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191113</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>20191130</t>
-        </is>
-      </c>
-      <c r="B624" t="n">
-        <v>2</v>
+          <t>20191114</t>
+        </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>20191201</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191115</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>20191203</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191116</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>20191204</t>
-        </is>
-      </c>
-      <c r="B627" t="n">
-        <v>1</v>
+          <t>20191117</t>
+        </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>20191205</t>
-        </is>
-      </c>
-      <c r="B628" t="n">
-        <v>1</v>
+          <t>20191118</t>
+        </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>20191206</t>
-        </is>
-      </c>
-      <c r="B629" t="n">
-        <v>1</v>
+          <t>20191119</t>
+        </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>20191207</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191120</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>20191208</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191121</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>20191209</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191122</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>20191210</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191123</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>20191211</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191124</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>20191212</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191125</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>20191213</t>
-        </is>
-      </c>
-      <c r="B636" t="n">
-        <v>1</v>
+          <t>20191126</t>
+        </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>20191214</t>
-        </is>
-      </c>
-      <c r="B637" t="n">
-        <v>1</v>
+          <t>20191127</t>
+        </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>20191215</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191128</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>20191216</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191129</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>20191217</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191130</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>20191218</t>
-        </is>
-      </c>
-      <c r="B641" t="n">
-        <v>2</v>
+          <t>20191201</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>20191219</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t xml:space="preserve">              -</t>
+          <t>20191203</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>20191220</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191204</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>20191221</t>
-        </is>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191205</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>20191222</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191206</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>20191223</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191207</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>20191224</t>
-        </is>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191208</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>20191225</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191209</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>20191226</t>
-        </is>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191210</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>20191227</t>
-        </is>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191211</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>20191228</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191212</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>20191229</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191213</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>20191230</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191214</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>20191231</t>
-        </is>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t xml:space="preserve">             - </t>
+          <t>20191215</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>20200101</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191216</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>20200102</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191217</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>20200103</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191218</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>20200104</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191219</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>20200105</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191220</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>20200106</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191221</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>20200107</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191222</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>20200108</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191223</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>20200109</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191224</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>20200110</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191225</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>20200111</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191226</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>20200112</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191227</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>20200113</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191228</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>20200114</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191229</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>20200115</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191230</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>20200116</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20191231</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>20200117</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200101</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>20200118</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200102</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>20200119</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200103</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>20200120</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200104</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>20200121</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200105</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>20200122</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200106</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>20200123</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200107</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>20200124</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200108</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>20200125</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200109</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>20200126</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200110</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>20200127</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200111</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>20200128</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200112</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>20200129</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
+          <t>20200113</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
+          <t>20200114</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>20200115</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>20200116</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>20200117</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>20200118</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>20200119</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>20200120</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>20200121</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>20200122</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>20200123</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>20200124</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>20200125</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>20200126</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>20200127</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>20200128</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>20200129</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
           <t>20200130</t>
         </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                  -</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr"/>
-      <c r="B685" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Prep codes/test_dir/result2.xlsx
+++ b/Code/Prep codes/test_dir/result2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A700"/>
+  <dimension ref="A1:A568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,4674 +660,3750 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20220616</t>
+          <t>20220614</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20220617</t>
+          <t>20220615</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20220619</t>
+          <t>20220616</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20220620</t>
+          <t>20220617</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20220621</t>
+          <t>20220619</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20220622</t>
+          <t>20220620</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20220623</t>
+          <t>20220621</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20220624</t>
+          <t>20220622</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20220625</t>
+          <t>20220623</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20220627</t>
+          <t>20220624</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20220628</t>
+          <t>20220625</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20220629</t>
+          <t>20220626</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20220630</t>
+          <t>20220627</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20220701</t>
+          <t>20220629</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20220702</t>
+          <t>20220701</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20220703</t>
+          <t>20220702</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20220704</t>
+          <t>20220703</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20220706</t>
+          <t>20220704</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20220707</t>
+          <t>20220705</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20220709</t>
+          <t>20220706</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20220710</t>
+          <t>20220707</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20220711</t>
+          <t>20220708</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20220712</t>
+          <t>20220709</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20220713</t>
+          <t>20220710</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20220714</t>
+          <t>20220711</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20220715</t>
+          <t>20220712</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20220716</t>
+          <t>20220713</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20220717</t>
+          <t>20220714</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20220718</t>
+          <t>20220715</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20220719</t>
+          <t>20220716</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20220720</t>
+          <t>20220717</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20220721</t>
+          <t>20220718</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20220722</t>
+          <t>20220719</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20220723</t>
+          <t>20220720</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20220724</t>
+          <t>20220721</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20220726</t>
+          <t>20220722</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20220728</t>
+          <t>20220723</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20220729</t>
+          <t>20220724</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20220730</t>
+          <t>20220726</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20220731</t>
+          <t>20220728</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20220801</t>
+          <t>20220729</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220730</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20220803</t>
+          <t>20220731</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220801</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20220805</t>
+          <t>20220802</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20220806</t>
+          <t>20220803</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20220807</t>
+          <t>20220804</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20220810</t>
+          <t>20220805</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20220811</t>
+          <t>20220806</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20220812</t>
+          <t>20220807</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20220813</t>
+          <t>20220808</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20220814</t>
+          <t>20220810</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20220815</t>
+          <t>20220811</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20220816</t>
+          <t>20220812</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20220817</t>
+          <t>20220813</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20220818</t>
+          <t>20220814</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20220819</t>
+          <t>20220815</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20220820</t>
+          <t>20220817</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20220821</t>
+          <t>20220818</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20220822</t>
+          <t>20220819</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20220823</t>
+          <t>20220820</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20220825</t>
+          <t>20220821</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20220826</t>
+          <t>20220822</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20220827</t>
+          <t>20220823</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20220828</t>
+          <t>20220824</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20220829</t>
+          <t>20220825</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20220830</t>
+          <t>20220826</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20220831</t>
+          <t>20220827</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20220901</t>
+          <t>20220828</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20220902</t>
+          <t>20220829</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20220904</t>
+          <t>20220830</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20220905</t>
+          <t>20220901</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20220906</t>
+          <t>20220902</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20220908</t>
+          <t>20220903</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20220909</t>
+          <t>20220904</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20220910</t>
+          <t>20220905</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20220911</t>
+          <t>20220906</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20220912</t>
+          <t>20220907</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20220913</t>
+          <t>20220908</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20220914</t>
+          <t>20220910</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20220916</t>
+          <t>20220911</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20220917</t>
+          <t>20220912</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20220919</t>
+          <t>20220913</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20220920</t>
+          <t>20220914</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20220921</t>
+          <t>20220915</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20220923</t>
+          <t>20220916</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20220924</t>
+          <t>20220917</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20220926</t>
+          <t>20220918</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20220927</t>
+          <t>20220919</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20220928</t>
+          <t>20220920</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20220929</t>
+          <t>20220921</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20220930</t>
+          <t>20220922</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20221001</t>
+          <t>20220923</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20221002</t>
+          <t>20220924</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20221003</t>
+          <t>20220925</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20221004</t>
+          <t>20220926</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20221005</t>
+          <t>20220927</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20221006</t>
+          <t>20220928</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20221007</t>
+          <t>20220929</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20221011</t>
+          <t>20221001</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221002</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20221013</t>
+          <t>20221003</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20221015</t>
+          <t>20221004</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20221016</t>
+          <t>20221005</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20221017</t>
+          <t>20221006</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20221018</t>
+          <t>20221007</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20221019</t>
+          <t>20221008</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20221020</t>
+          <t>20221011</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20221021</t>
+          <t>20221012</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20221023</t>
+          <t>20221013</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20221025</t>
+          <t>20221014</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20221027</t>
+          <t>20221015</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20221028</t>
+          <t>20221016</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20221029</t>
+          <t>20221017</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20221031</t>
+          <t>20221018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20221030</t>
+          <t>20221019</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20221102</t>
+          <t>20221020</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20221103</t>
+          <t>20221021</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20221104</t>
+          <t>20221022</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20221105</t>
+          <t>20221023</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20221106</t>
+          <t>20221024</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20221107</t>
+          <t>20221025</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20221108</t>
+          <t>20221026</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20221109</t>
+          <t>20221027</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20221110</t>
+          <t>20221028</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20221111</t>
+          <t>20221031</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20221112</t>
+          <t>20221030</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20221113</t>
+          <t>20221101</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20221114</t>
+          <t>20221102</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20221115</t>
+          <t>20221103</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20221116</t>
+          <t>20221104</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20221117</t>
+          <t>20221105</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20221118</t>
+          <t>20221107</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20221119</t>
+          <t>20221108</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20221120</t>
+          <t>20221109</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20221121</t>
+          <t>20221110</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20221122</t>
+          <t>20221111</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20221112</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20221124</t>
+          <t>20221113</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20221125</t>
+          <t>20221114</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20221126</t>
+          <t>20221115</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20221127</t>
+          <t>20221116</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20221201</t>
+          <t>20221117</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20221202</t>
+          <t>20221118</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20221203</t>
+          <t>20221119</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20221204</t>
+          <t>20221120</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20221205</t>
+          <t>20221121</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20221206</t>
+          <t>20221122</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20221207</t>
+          <t>20221123</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20221209</t>
+          <t>20221124</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20221210</t>
+          <t>20221125</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20221211</t>
+          <t>20221126</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20221212</t>
+          <t>20221127</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20221213</t>
+          <t>20221201</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20221214</t>
+          <t>20221202</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20221215</t>
+          <t>20221203</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20221216</t>
+          <t>20221204</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20221217</t>
+          <t>20221205</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20221218</t>
+          <t>20221206</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20221219</t>
+          <t>20221207</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20221220</t>
+          <t>20221208</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20221221</t>
+          <t>20221209</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20221222</t>
+          <t>20221210</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20221223</t>
+          <t>20221211</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20221224</t>
+          <t>20221212</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20221225</t>
+          <t>20221213</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20221226</t>
+          <t>20221214</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20221227</t>
+          <t>20221215</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20221228</t>
+          <t>20221216</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20221229</t>
+          <t>20221217</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20221230</t>
+          <t>20221218</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>20221219</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20230102</t>
+          <t>20221220</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20230103</t>
+          <t>20221221</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20230104</t>
+          <t>20221222</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20230105</t>
+          <t>20221223</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20230106</t>
+          <t>20221224</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20230107</t>
+          <t>20221225</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20230108</t>
+          <t>20221226</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20230109</t>
+          <t>20221227</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20230110</t>
+          <t>20221228</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20230111</t>
+          <t>20221229</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20230112</t>
+          <t>20221230</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20230113</t>
+          <t>20230101</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20230114</t>
+          <t>20230102</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20230115</t>
+          <t>20230103</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20230116</t>
+          <t>20230104</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20230117</t>
+          <t>20230105</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20230118</t>
+          <t>20230106</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20230119</t>
+          <t>20230107</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20230120</t>
+          <t>20230108</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20230121</t>
+          <t>20230109</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20230122</t>
+          <t>20230110</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20230123</t>
+          <t>20230111</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20230124</t>
+          <t>20230112</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20230125</t>
+          <t>20230113</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20230126</t>
+          <t>20230114</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20230127</t>
+          <t>20230115</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20230128</t>
+          <t>20230116</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20230129</t>
+          <t>20230117</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20230130</t>
+          <t>20230118</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20230131</t>
+          <t>20230119</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20230201</t>
+          <t>20230120</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20230202</t>
+          <t>20230121</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20230203</t>
+          <t>20230122</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20230205</t>
+          <t>20230123</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20230209</t>
+          <t>20230124</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20230210</t>
+          <t>20230125</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20230211</t>
+          <t>20230126</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20230212</t>
+          <t>20230127</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20230213</t>
+          <t>20230128</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20230214</t>
+          <t>20230129</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20230215</t>
+          <t>20230130</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20230217</t>
+          <t>20230131</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20230218</t>
+          <t>20230201</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20230219</t>
+          <t>20230202</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20230221</t>
+          <t>20230203</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20230222</t>
+          <t>20230204</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20230223</t>
+          <t>20230206</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20230224</t>
+          <t>20230207</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20230225</t>
+          <t>20230208</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20230226</t>
+          <t>20230209</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20230227</t>
+          <t>20230210</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20230228</t>
+          <t>20230211</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20230301</t>
+          <t>20230212</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20230302</t>
+          <t>20230213</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20230303</t>
+          <t>20230214</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20230304</t>
+          <t>20230215</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20230305</t>
+          <t>20230217</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20230306</t>
+          <t>20230218</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20230307</t>
+          <t>20230219</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20230308</t>
+          <t>20230220</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20230309</t>
+          <t>20230221</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20230310</t>
+          <t>20230222</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20230311</t>
+          <t>20230223</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20230312</t>
+          <t>20230224</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20230313</t>
+          <t>20230225</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20230314</t>
+          <t>20230226</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20230315</t>
+          <t>20230227</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20230316</t>
+          <t>20230228</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20230317</t>
+          <t>20230301</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20230318</t>
+          <t>20230302</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20230319</t>
+          <t>20230303</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20230320</t>
+          <t>20230304</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20230321</t>
+          <t>20230305</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20230322</t>
+          <t>20230306</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20230323</t>
+          <t>20230307</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20230324</t>
+          <t>20230308</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20230325</t>
+          <t>20230309</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20230326</t>
+          <t>20230310</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20230327</t>
+          <t>20230311</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20230328</t>
+          <t>20230312</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20230329</t>
+          <t>20230313</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20230330</t>
+          <t>20230314</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20230331</t>
+          <t>20230315</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20230401</t>
+          <t>20230316</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20230402</t>
+          <t>20230317</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20230403</t>
+          <t>20230318</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20230404</t>
+          <t>20230319</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20230405</t>
+          <t>20230320</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20230406</t>
+          <t>20230321</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20230407</t>
+          <t>20230322</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20230408</t>
+          <t>20230323</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20230409</t>
+          <t>20230324</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20230410</t>
+          <t>20230325</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20230411</t>
+          <t>20230326</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>20230412</t>
+          <t>20230327</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>20230413</t>
+          <t>20230328</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>20230414</t>
+          <t>20230329</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>20230415</t>
+          <t>20230330</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>20230416</t>
+          <t>20230331</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20230417</t>
+          <t>20230401</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>20230418</t>
+          <t>20230402</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>20230419</t>
+          <t>20230403</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>20230420</t>
+          <t>20230404</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>20230421</t>
+          <t>20230405</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>20230422</t>
+          <t>20230406</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>20230423</t>
+          <t>20230407</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>20230424</t>
+          <t>20230408</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20230425</t>
+          <t>20230409</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20230426</t>
+          <t>20230410</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20230427</t>
+          <t>20230411</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20230428</t>
+          <t>20230412</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20230429</t>
+          <t>20230413</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20230430</t>
+          <t>20230414</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20230501</t>
+          <t>20230415</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20230502</t>
+          <t>20230416</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20230503</t>
+          <t>20230417</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20230504</t>
+          <t>20230418</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>20230505</t>
+          <t>20230419</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>20230506</t>
+          <t>20230420</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>20230507</t>
+          <t>20230421</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20230508</t>
+          <t>20230422</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>20230509</t>
+          <t>20230423</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>20230510</t>
+          <t>20230424</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>20230511</t>
+          <t>20230425</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>20230512</t>
+          <t>20230426</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>20230514</t>
+          <t>20230427</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>20230515</t>
+          <t>20230428</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20230516</t>
+          <t>20230429</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>20230517</t>
+          <t>20230430</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>20230518</t>
+          <t>20230501</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>20230519</t>
+          <t>20230502</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>20230520</t>
+          <t>20230503</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20230521</t>
+          <t>20230504</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>20230522</t>
+          <t>20230505</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>20230523</t>
+          <t>20230506</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>20230524</t>
+          <t>20230507</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>20230525</t>
+          <t>20230508</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>20230526</t>
+          <t>20230509</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20230527</t>
+          <t>20230510</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>20230528</t>
+          <t>20230511</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>20230529</t>
+          <t>20230512</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>20230530</t>
+          <t>20230514</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>20230531</t>
+          <t>20230515</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>20230601</t>
+          <t>20230516</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>20230602</t>
+          <t>20230517</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>20230603</t>
+          <t>20230518</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>20230604</t>
+          <t>20230519</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>20230605</t>
+          <t>20230520</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>20230606</t>
+          <t>20230521</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>20230607</t>
+          <t>20230522</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>20230608</t>
+          <t>20230523</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>20230609</t>
+          <t>20230524</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>20230610</t>
+          <t>20230525</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>20230611</t>
+          <t>20230526</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>20230612</t>
+          <t>20230527</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20230613</t>
+          <t>20230528</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20230614</t>
+          <t>20230529</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>20230615</t>
+          <t>20230530</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20230616</t>
+          <t>20230531</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>20230617</t>
+          <t>20230601</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>20230618</t>
+          <t>20230602</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>20230619</t>
+          <t>20230603</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>20230620</t>
+          <t>20230604</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>20230621</t>
+          <t>20230605</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>20230622</t>
+          <t>20230606</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>20230623</t>
+          <t>20230607</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>20230624</t>
+          <t>20230608</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>20230625</t>
+          <t>20230609</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>20230626</t>
+          <t>20230610</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>20230627</t>
+          <t>20230611</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>20230628</t>
+          <t>20230612</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>20230629</t>
+          <t>20230613</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>20230630</t>
+          <t>20230614</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>20230701</t>
+          <t>20230615</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>20230702</t>
+          <t>20230616</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>20230703</t>
+          <t>20230617</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>20230704</t>
+          <t>20230618</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>20230705</t>
+          <t>20230619</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>20230706</t>
+          <t>20230620</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>20230707</t>
+          <t>20230621</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>20230708</t>
+          <t>20230622</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>20230709</t>
+          <t>20230623</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>20230710</t>
+          <t>20230624</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>20230711</t>
+          <t>20230625</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>20230712</t>
+          <t>20230626</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>20230713</t>
+          <t>20230627</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>20230714</t>
+          <t>20230628</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>20230715</t>
+          <t>20230629</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>20230716</t>
+          <t>20230630</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>20230717</t>
+          <t>20230701</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>20230718</t>
+          <t>20230702</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>20230719</t>
+          <t>20230703</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>20230720</t>
+          <t>20230704</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>20230721</t>
+          <t>20230705</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>20230722</t>
+          <t>20230706</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>20230723</t>
+          <t>20230707</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>20230725</t>
+          <t>20230708</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>20230726</t>
+          <t>20230709</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>20230727</t>
+          <t>20230710</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>20230728</t>
+          <t>20230711</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>20230729</t>
+          <t>20230712</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>20230730</t>
+          <t>20230713</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>20230731</t>
+          <t>20230714</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>20230801</t>
+          <t>20230715</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230716</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>20230803</t>
+          <t>20230717</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230718</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>20230805</t>
+          <t>20230719</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>20230806</t>
+          <t>20230720</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>20230807</t>
+          <t>20230721</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>20230808</t>
+          <t>20230722</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>20230809</t>
+          <t>20230723</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>20230810</t>
+          <t>20230725</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>20230811</t>
+          <t>20230726</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>20230812</t>
+          <t>20230727</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>20230813</t>
+          <t>20230728</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>20230814</t>
+          <t>20230729</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>20230815</t>
+          <t>20190901</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>20230816</t>
+          <t>20190902</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>20230817</t>
+          <t>20190903</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>20230818</t>
+          <t>20190906</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>20230819</t>
+          <t>20190907</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>20230820</t>
+          <t>20190908</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>20230821</t>
+          <t>20190910</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>20230822</t>
+          <t>20190911</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>20230823</t>
+          <t>20190912</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>20230824</t>
+          <t>20190913</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>20230825</t>
+          <t>20190914</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>20230826</t>
+          <t>20190915</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>20230827</t>
+          <t>20190916</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>20230828</t>
+          <t>20190917</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>20230829</t>
+          <t>20190918</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>20230830</t>
+          <t>20190919</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>20230831</t>
+          <t>20190920</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>20230901</t>
+          <t>20190921</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>20230902</t>
+          <t>20190922</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>20230903</t>
+          <t>20190923</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>20230904</t>
+          <t>20190924</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>20230905</t>
+          <t>20190927</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>20230906</t>
+          <t>20190928</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>20230907</t>
+          <t>20190929</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>20230908</t>
+          <t>20190930</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>20230909</t>
+          <t>20191001</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>20230910</t>
+          <t>20191002</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>20230911</t>
+          <t>20191003</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>20230912</t>
+          <t>20191004</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>20230913</t>
+          <t>20191005</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>20230914</t>
+          <t>20191006</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>20230915</t>
+          <t>20191007</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>20230916</t>
+          <t>20191008</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>20230917</t>
+          <t>20191009</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>20230918</t>
+          <t>20191010</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>20230919</t>
+          <t>20191011</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>20230920</t>
+          <t>20191012</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>20230921</t>
+          <t>20191013</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>20230922</t>
+          <t>20191014</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>20230923</t>
+          <t>20191015</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>20230924</t>
+          <t>20191016</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>20230925</t>
+          <t>20191017</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>20230926</t>
+          <t>20191018</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>20230927</t>
+          <t>20191019</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>20230928</t>
+          <t>20191020</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>20230929</t>
+          <t>20191021</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>20230930</t>
+          <t>20191022</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>20231001</t>
+          <t>20191023</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>20231002</t>
+          <t>20191024</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>20231003</t>
+          <t>20191025</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>20231004</t>
+          <t>20191026</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>20231005</t>
+          <t>20191027</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>20231006</t>
+          <t>20191028</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>20231007</t>
+          <t>20191029</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>20231008</t>
+          <t>20191030</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>20231009</t>
+          <t>20191031</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>20231010</t>
+          <t>20191101</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>20231011</t>
+          <t>20191102</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>20231012</t>
+          <t>20191103</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>20231013</t>
+          <t>20191104</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>20231014</t>
+          <t>20191105</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>20231015</t>
+          <t>20191106</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>20231016</t>
+          <t>20191107</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>20231017</t>
+          <t>20191108</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>20231018</t>
+          <t>20191109</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>20231019</t>
+          <t>20191110</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>20231020</t>
+          <t>20191111</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>20231021</t>
+          <t>20191112</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>20231022</t>
+          <t>20191113</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>20231023</t>
+          <t>20191114</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>20231024</t>
+          <t>20191115</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>20231025</t>
+          <t>20191116</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>20231026</t>
+          <t>20191117</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>20231027</t>
+          <t>20191118</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>20231028</t>
+          <t>20191119</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>20231029</t>
+          <t>20191120</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>20231030</t>
+          <t>20191121</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>20231101</t>
+          <t>20191122</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>20231102</t>
+          <t>20191123</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>20231103</t>
+          <t>20191124</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>20231104</t>
+          <t>20191125</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>20231105</t>
+          <t>20191126</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>20231106</t>
+          <t>20191127</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>20231107</t>
+          <t>20191128</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>20231108</t>
+          <t>20191129</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>20231109</t>
+          <t>20191130</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>20231110</t>
+          <t>20191201</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>20231111</t>
+          <t>20191202</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>20231112</t>
+          <t>20191203</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>20231113</t>
+          <t>20191204</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>20231114</t>
+          <t>20191205</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>20231115</t>
+          <t>20191206</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>20231116</t>
+          <t>20191207</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>20231117</t>
+          <t>20191208</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>20231118</t>
+          <t>20191209</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>20231119</t>
+          <t>20191210</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>20231120</t>
+          <t>20191211</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>20231121</t>
+          <t>20191212</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>20231122</t>
+          <t>20191213</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>20231123</t>
+          <t>20191214</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>20231124</t>
+          <t>20191215</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>20231125</t>
+          <t>20191216</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>20231126</t>
+          <t>20191217</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>20231127</t>
+          <t>20191218</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>20231128</t>
+          <t>20191219</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>20231129</t>
+          <t>20191220</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>20231130</t>
+          <t>20191221</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>20231201</t>
+          <t>20191222</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>20231202</t>
+          <t>20191223</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>20231203</t>
+          <t>20191224</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>20231204</t>
+          <t>20191225</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>20231205</t>
+          <t>20191226</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>20231206</t>
+          <t>20191227</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>20231207</t>
+          <t>20191228</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>20231208</t>
+          <t>20191229</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>20231209</t>
+          <t>20191230</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>20231210</t>
+          <t>20191231</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>20231211</t>
+          <t>20200101</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>20231212</t>
+          <t>20200102</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>20231213</t>
+          <t>20200103</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>20231214</t>
+          <t>20200104</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>20231215</t>
+          <t>20200105</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>20231216</t>
+          <t>20200106</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>20231217</t>
+          <t>20200107</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>20231218</t>
+          <t>20200108</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>20231219</t>
+          <t>20200109</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>20231220</t>
+          <t>20200110</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>20231221</t>
+          <t>20200111</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>20231222</t>
+          <t>20200112</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>20231223</t>
+          <t>20200113</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>20231224</t>
+          <t>20200114</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>20231225</t>
+          <t>20200115</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>20231226</t>
+          <t>20200116</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>20190901</t>
+          <t>20200117</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>20190902</t>
+          <t>20200118</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>20190903</t>
+          <t>20200119</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>20190906</t>
+          <t>20200120</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>20190907</t>
+          <t>20200121</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>20190908</t>
+          <t>20200122</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20200123</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>20190911</t>
+          <t>20200124</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>20190912</t>
+          <t>20200125</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>20190913</t>
+          <t>20200126</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>20190914</t>
+          <t>20200127</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>20190915</t>
+          <t>20200128</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>20190916</t>
+          <t>20200129</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
-        <is>
-          <t>20190917</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>20190918</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>20190919</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>20190920</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>20190921</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>20190922</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>20190923</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>20190924</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>20190927</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>20190928</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>20190929</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>20190930</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>20191001</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>20191002</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>20191003</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>20191004</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>20191005</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>20191006</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>20191007</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>20191008</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>20191009</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>20191010</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>20191011</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>20191012</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>20191013</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>20191014</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>20191015</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>20191016</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>20191017</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>20191018</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>20191019</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>20191020</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>20191021</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>20191022</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>20191023</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>20191024</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>20191025</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>20191026</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>20191027</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>20191028</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>20191029</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>20191030</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>20191031</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>20191101</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>20191102</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>20191103</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>20191104</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>20191105</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>20191106</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>20191107</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>20191108</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>20191109</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>20191110</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>20191111</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>20191112</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>20191113</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>20191114</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>20191115</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>20191116</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>20191117</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>20191118</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>20191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>20191120</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>20191121</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>20191122</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>20191123</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>20191124</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>20191125</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>20191126</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>20191127</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>20191128</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>20191129</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>20191130</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>20191201</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>20191203</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>20191204</t>
-        </is>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>20191205</t>
-        </is>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>20191206</t>
-        </is>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>20191207</t>
-        </is>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>20191208</t>
-        </is>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>20191209</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>20191210</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>20191211</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>20191212</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>20191213</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>20191214</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>20191215</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>20191216</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>20191217</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>20191218</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>20191219</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>20191220</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>20191221</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>20191222</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>20191223</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>20191224</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>20191225</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>20191226</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>20191227</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>20191228</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>20191229</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>20191230</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>20191231</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>20200101</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>20200102</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>20200103</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>20200104</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>20200105</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>20200106</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>20200107</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>20200108</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>20200109</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>20200110</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>20200111</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>20200112</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>20200113</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>20200114</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>20200115</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>20200116</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>20200117</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>20200118</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>20200119</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>20200120</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>20200121</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>20200122</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>20200123</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>20200124</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>20200125</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>20200126</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>20200127</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>20200128</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>20200129</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
         <is>
           <t>20200130</t>
         </is>

--- a/Code/Prep codes/test_dir/result2.xlsx
+++ b/Code/Prep codes/test_dir/result2.xlsx
@@ -730,2758 +730,2758 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20220625</t>
+          <t>20220624</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20220626</t>
+          <t>20220625</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20220627</t>
+          <t>20220626</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20220629</t>
+          <t>20220627</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20220701</t>
+          <t>20220629</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20220702</t>
+          <t>20220701</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20220703</t>
+          <t>20220702</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20220704</t>
+          <t>20220703</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20220705</t>
+          <t>20220704</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20220706</t>
+          <t>20220705</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20220707</t>
+          <t>20220706</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20220708</t>
+          <t>20220707</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20220709</t>
+          <t>20220708</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20220710</t>
+          <t>20220709</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20220711</t>
+          <t>20220710</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20220712</t>
+          <t>20220711</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20220713</t>
+          <t>20220712</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20220714</t>
+          <t>20220713</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20220715</t>
+          <t>20220714</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20220716</t>
+          <t>20220715</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20220717</t>
+          <t>20220716</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20220718</t>
+          <t>20220717</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20220719</t>
+          <t>20220718</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20220720</t>
+          <t>20220719</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20220721</t>
+          <t>20220720</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20220722</t>
+          <t>20220721</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20220723</t>
+          <t>20220722</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20220724</t>
+          <t>20220723</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20220726</t>
+          <t>20220724</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20220728</t>
+          <t>20220726</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20220729</t>
+          <t>20220728</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20220730</t>
+          <t>20220729</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20220731</t>
+          <t>20220730</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20220801</t>
+          <t>20220731</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20220802</t>
+          <t>20220801</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20220803</t>
+          <t>20220802</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20220804</t>
+          <t>20220803</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20220805</t>
+          <t>20220804</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20220806</t>
+          <t>20220805</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20220807</t>
+          <t>20220806</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20220808</t>
+          <t>20220807</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20220810</t>
+          <t>20220808</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20220811</t>
+          <t>20220810</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20220812</t>
+          <t>20220811</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20220813</t>
+          <t>20220812</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20220814</t>
+          <t>20220813</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20220815</t>
+          <t>20220814</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20220817</t>
+          <t>20220815</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20220818</t>
+          <t>20220817</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20220819</t>
+          <t>20220818</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20220820</t>
+          <t>20220819</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20220821</t>
+          <t>20220820</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20220822</t>
+          <t>20220821</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20220823</t>
+          <t>20220822</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20220824</t>
+          <t>20220823</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20220825</t>
+          <t>20220824</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20220826</t>
+          <t>20220825</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20220827</t>
+          <t>20220826</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20220828</t>
+          <t>20220827</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20220829</t>
+          <t>20220828</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20220830</t>
+          <t>20220829</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20220901</t>
+          <t>20220830</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20220902</t>
+          <t>20220901</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20220903</t>
+          <t>20220902</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20220904</t>
+          <t>20220903</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20220905</t>
+          <t>20220904</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20220906</t>
+          <t>20220905</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20220907</t>
+          <t>20220906</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20220908</t>
+          <t>20220907</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20220910</t>
+          <t>20220908</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20220911</t>
+          <t>20220910</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20220912</t>
+          <t>20220911</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20220913</t>
+          <t>20220912</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20220914</t>
+          <t>20220913</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20220915</t>
+          <t>20220914</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20220916</t>
+          <t>20220915</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20220917</t>
+          <t>20220916</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20220918</t>
+          <t>20220917</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20220919</t>
+          <t>20220918</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20220920</t>
+          <t>20220919</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20220921</t>
+          <t>20220920</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20220922</t>
+          <t>20220921</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20220923</t>
+          <t>20220922</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20220924</t>
+          <t>20220923</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20220925</t>
+          <t>20220924</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20220926</t>
+          <t>20220925</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20220927</t>
+          <t>20220926</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20220928</t>
+          <t>20220927</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20220929</t>
+          <t>20220928</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20221001</t>
+          <t>20220929</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20221002</t>
+          <t>20221001</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20221003</t>
+          <t>20221002</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20221004</t>
+          <t>20221003</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20221005</t>
+          <t>20221004</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20221006</t>
+          <t>20221005</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20221007</t>
+          <t>20221006</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20221008</t>
+          <t>20221007</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20221011</t>
+          <t>20221008</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221011</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20221013</t>
+          <t>20221012</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20221014</t>
+          <t>20221013</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20221015</t>
+          <t>20221014</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20221016</t>
+          <t>20221015</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20221017</t>
+          <t>20221016</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20221018</t>
+          <t>20221017</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20221019</t>
+          <t>20221018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20221020</t>
+          <t>20221019</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20221021</t>
+          <t>20221020</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20221022</t>
+          <t>20221021</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20221023</t>
+          <t>20221022</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20221024</t>
+          <t>20221023</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20221025</t>
+          <t>20221024</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20221026</t>
+          <t>20221025</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20221027</t>
+          <t>20221026</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20221028</t>
+          <t>20221027</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20221031</t>
+          <t>20221028</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20221030</t>
+          <t>20221031</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>20221101</t>
+          <t>20221030</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>20221102</t>
+          <t>20221101</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>20221103</t>
+          <t>20221102</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>20221104</t>
+          <t>20221103</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>20221105</t>
+          <t>20221104</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>20221107</t>
+          <t>20221105</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20221108</t>
+          <t>20221107</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>20221109</t>
+          <t>20221108</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>20221110</t>
+          <t>20221109</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>20221111</t>
+          <t>20221110</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>20221112</t>
+          <t>20221111</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>20221113</t>
+          <t>20221112</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>20221114</t>
+          <t>20221113</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>20221115</t>
+          <t>20221114</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>20221116</t>
+          <t>20221115</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20221117</t>
+          <t>20221116</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>20221118</t>
+          <t>20221117</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>20221119</t>
+          <t>20221118</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>20221120</t>
+          <t>20221119</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>20221121</t>
+          <t>20221120</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>20221122</t>
+          <t>20221121</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>20221123</t>
+          <t>20221122</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20221124</t>
+          <t>20221123</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>20221125</t>
+          <t>20221124</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>20221126</t>
+          <t>20221125</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>20221127</t>
+          <t>20221126</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>20221201</t>
+          <t>20221127</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>20221202</t>
+          <t>20221201</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>20221203</t>
+          <t>20221202</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>20221204</t>
+          <t>20221203</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>20221205</t>
+          <t>20221204</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>20221206</t>
+          <t>20221205</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>20221207</t>
+          <t>20221206</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>20221208</t>
+          <t>20221207</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>20221209</t>
+          <t>20221208</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>20221210</t>
+          <t>20221209</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>20221211</t>
+          <t>20221210</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>20221212</t>
+          <t>20221211</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>20221213</t>
+          <t>20221212</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>20221214</t>
+          <t>20221213</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>20221215</t>
+          <t>20221214</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>20221216</t>
+          <t>20221215</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>20221217</t>
+          <t>20221216</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>20221218</t>
+          <t>20221217</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>20221219</t>
+          <t>20221218</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>20221220</t>
+          <t>20221219</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>20221221</t>
+          <t>20221220</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>20221222</t>
+          <t>20221221</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>20221223</t>
+          <t>20221222</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>20221224</t>
+          <t>20221223</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>20221225</t>
+          <t>20221224</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>20221226</t>
+          <t>20221225</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>20221227</t>
+          <t>20221226</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>20221228</t>
+          <t>20221227</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>20221229</t>
+          <t>20221228</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>20221230</t>
+          <t>20221229</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>20230101</t>
+          <t>20221230</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>20230102</t>
+          <t>20230101</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>20230103</t>
+          <t>20230102</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>20230104</t>
+          <t>20230103</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>20230105</t>
+          <t>20230104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>20230106</t>
+          <t>20230105</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>20230107</t>
+          <t>20230106</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>20230108</t>
+          <t>20230107</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>20230109</t>
+          <t>20230108</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>20230110</t>
+          <t>20230109</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>20230111</t>
+          <t>20230110</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>20230112</t>
+          <t>20230111</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>20230113</t>
+          <t>20230112</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>20230114</t>
+          <t>20230113</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>20230115</t>
+          <t>20230114</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>20230116</t>
+          <t>20230115</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>20230117</t>
+          <t>20230116</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>20230118</t>
+          <t>20230117</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>20230119</t>
+          <t>20230118</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>20230120</t>
+          <t>20230119</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>20230121</t>
+          <t>20230120</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>20230122</t>
+          <t>20230121</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>20230123</t>
+          <t>20230122</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>20230124</t>
+          <t>20230123</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>20230125</t>
+          <t>20230124</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>20230126</t>
+          <t>20230125</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>20230127</t>
+          <t>20230126</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>20230128</t>
+          <t>20230127</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>20230129</t>
+          <t>20230128</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>20230130</t>
+          <t>20230129</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>20230131</t>
+          <t>20230130</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>20230201</t>
+          <t>20230131</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>20230202</t>
+          <t>20230201</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>20230203</t>
+          <t>20230202</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>20230204</t>
+          <t>20230203</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>20230206</t>
+          <t>20230204</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>20230207</t>
+          <t>20230206</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>20230208</t>
+          <t>20230207</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>20230209</t>
+          <t>20230208</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>20230210</t>
+          <t>20230209</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>20230211</t>
+          <t>20230210</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>20230212</t>
+          <t>20230211</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>20230213</t>
+          <t>20230212</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>20230214</t>
+          <t>20230213</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>20230215</t>
+          <t>20230214</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>20230217</t>
+          <t>20230215</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>20230218</t>
+          <t>20230217</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>20230219</t>
+          <t>20230218</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>20230220</t>
+          <t>20230219</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>20230221</t>
+          <t>20230220</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>20230222</t>
+          <t>20230221</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>20230223</t>
+          <t>20230222</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>20230224</t>
+          <t>20230223</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>20230225</t>
+          <t>20230224</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>20230226</t>
+          <t>20230225</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>20230227</t>
+          <t>20230226</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>20230228</t>
+          <t>20230227</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>20230301</t>
+          <t>20230228</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>20230302</t>
+          <t>20230301</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>20230303</t>
+          <t>20230302</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>20230304</t>
+          <t>20230303</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>20230305</t>
+          <t>20230304</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>20230306</t>
+          <t>20230305</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>20230307</t>
+          <t>20230306</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>20230308</t>
+          <t>20230307</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>20230309</t>
+          <t>20230308</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>20230310</t>
+          <t>20230309</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>20230311</t>
+          <t>20230310</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>20230312</t>
+          <t>20230311</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>20230313</t>
+          <t>20230312</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>20230314</t>
+          <t>20230313</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>20230315</t>
+          <t>20230314</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>20230316</t>
+          <t>20230315</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>20230317</t>
+          <t>20230316</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>20230318</t>
+          <t>20230317</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>20230319</t>
+          <t>20230318</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>20230320</t>
+          <t>20230319</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>20230321</t>
+          <t>20230320</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>20230322</t>
+          <t>20230321</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>20230323</t>
+          <t>20230322</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>20230324</t>
+          <t>20230323</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>20230325</t>
+          <t>20230324</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>20230326</t>
+          <t>20230325</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>20230327</t>
+          <t>20230326</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>20230328</t>
+          <t>20230327</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>20230329</t>
+          <t>20230328</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>20230330</t>
+          <t>20230329</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>20230331</t>
+          <t>20230330</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>20230401</t>
+          <t>20230331</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>20230402</t>
+          <t>20230401</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>20230403</t>
+          <t>20230402</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>20230404</t>
+          <t>20230403</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>20230405</t>
+          <t>20230404</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>20230406</t>
+          <t>20230405</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>20230407</t>
+          <t>20230406</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>20230408</t>
+          <t>20230407</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>20230409</t>
+          <t>20230408</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>20230410</t>
+          <t>20230409</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>20230411</t>
+          <t>20230410</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>20230412</t>
+          <t>20230411</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>20230413</t>
+          <t>20230412</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>20230414</t>
+          <t>20230413</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>20230415</t>
+          <t>20230414</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>20230416</t>
+          <t>20230415</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>20230417</t>
+          <t>20230416</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>20230418</t>
+          <t>20230417</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>20230419</t>
+          <t>20230418</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>20230420</t>
+          <t>20230419</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>20230421</t>
+          <t>20230420</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>20230422</t>
+          <t>20230421</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>20230423</t>
+          <t>20230422</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>20230424</t>
+          <t>20230423</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>20230425</t>
+          <t>20230424</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>20230426</t>
+          <t>20230425</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>20230427</t>
+          <t>20230426</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>20230428</t>
+          <t>20230427</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>20230429</t>
+          <t>20230428</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>20230430</t>
+          <t>20230429</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>20230501</t>
+          <t>20230430</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>20230502</t>
+          <t>20230501</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>20230503</t>
+          <t>20230502</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>20230504</t>
+          <t>20230503</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>20230505</t>
+          <t>20230504</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>20230506</t>
+          <t>20230505</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>20230507</t>
+          <t>20230506</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>20230508</t>
+          <t>20230507</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>20230509</t>
+          <t>20230508</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>20230510</t>
+          <t>20230509</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>20230511</t>
+          <t>20230510</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>20230512</t>
+          <t>20230511</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>20230514</t>
+          <t>20230512</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>20230515</t>
+          <t>20230514</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>20230516</t>
+          <t>20230515</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>20230517</t>
+          <t>20230516</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>20230518</t>
+          <t>20230517</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>20230519</t>
+          <t>20230518</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>20230520</t>
+          <t>20230519</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>20230521</t>
+          <t>20230520</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>20230522</t>
+          <t>20230521</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>20230523</t>
+          <t>20230522</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>20230524</t>
+          <t>20230523</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>20230525</t>
+          <t>20230524</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>20230526</t>
+          <t>20230525</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>20230527</t>
+          <t>20230526</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>20230528</t>
+          <t>20230527</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>20230529</t>
+          <t>20230528</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>20230530</t>
+          <t>20230529</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>20230531</t>
+          <t>20230530</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>20230601</t>
+          <t>20230531</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>20230602</t>
+          <t>20230601</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>20230603</t>
+          <t>20230602</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>20230604</t>
+          <t>20230603</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>20230605</t>
+          <t>20230604</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>20230606</t>
+          <t>20230605</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>20230607</t>
+          <t>20230606</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>20230608</t>
+          <t>20230607</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>20230609</t>
+          <t>20230608</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>20230610</t>
+          <t>20230609</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>20230611</t>
+          <t>20230610</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>20230612</t>
+          <t>20230611</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>20230613</t>
+          <t>20230612</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>20230614</t>
+          <t>20230613</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>20230615</t>
+          <t>20230614</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>20230616</t>
+          <t>20230615</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>20230617</t>
+          <t>20230616</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>20230618</t>
+          <t>20230617</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>20230619</t>
+          <t>20230618</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>20230620</t>
+          <t>20230619</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>20230621</t>
+          <t>20230620</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>20230622</t>
+          <t>20230621</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>20230623</t>
+          <t>20230622</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>20230624</t>
+          <t>20230623</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>20230625</t>
+          <t>20230624</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>20230626</t>
+          <t>20230625</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>20230627</t>
+          <t>20230626</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>20230628</t>
+          <t>20230627</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>20230629</t>
+          <t>20230628</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>20230630</t>
+          <t>20230629</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>20230701</t>
+          <t>20230630</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>20230702</t>
+          <t>20230701</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>20230703</t>
+          <t>20230702</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>20230704</t>
+          <t>20230703</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>20230705</t>
+          <t>20230704</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>20230706</t>
+          <t>20230705</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>20230707</t>
+          <t>20230706</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>20230708</t>
+          <t>20230707</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>20230709</t>
+          <t>20230708</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>20230710</t>
+          <t>20230709</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>20230711</t>
+          <t>20230710</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>20230712</t>
+          <t>20230711</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>20230713</t>
+          <t>20230712</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>20230714</t>
+          <t>20230713</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>20230715</t>
+          <t>20230714</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>20230716</t>
+          <t>20230715</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>20230717</t>
+          <t>20230716</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>20230718</t>
+          <t>20230717</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>20230719</t>
+          <t>20230718</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>20230720</t>
+          <t>20230719</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>20230721</t>
+          <t>20230720</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>20230722</t>
+          <t>20230721</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>20230723</t>
+          <t>20230722</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>20230725</t>
+          <t>20230723</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>20230726</t>
+          <t>20230725</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>20230727</t>
+          <t>20230726</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>20230728</t>
+          <t>20230727</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>20230729</t>
+          <t>20230728</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>20190901</t>
+          <t>20230729</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>20190902</t>
+          <t>20190901</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>20190903</t>
+          <t>20190902</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>20190906</t>
+          <t>20190903</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>20190907</t>
+          <t>20190906</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>20190908</t>
+          <t>20190907</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>20190910</t>
+          <t>20190908</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>20190911</t>
+          <t>20190910</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>20190912</t>
+          <t>20190911</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>20190913</t>
+          <t>20190912</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>20190914</t>
+          <t>20190913</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>20190915</t>
+          <t>20190914</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>20190916</t>
+          <t>20190915</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>20190917</t>
+          <t>20190916</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>20190918</t>
+          <t>20190917</t>
         </is>
       </c>
     </row>
